--- a/santhuongmai/santhuongmai/src/main/resources/template_chart.xlsx
+++ b/santhuongmai/santhuongmai/src/main/resources/template_chart.xlsx
@@ -56,7 +56,7 @@
     <t>${data.stt}</t>
   </si>
   <si>
-    <t>${datafield}</t>
+    <t>${data.field}</t>
   </si>
   <si>
     <t>${data.amount}</t>
@@ -753,15 +753,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,6 +770,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1327,52 +1327,52 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="6" ht="15.75" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="31.5" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1380,12 +1380,12 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/santhuongmai/santhuongmai/src/main/resources/template_chart.xlsx
+++ b/santhuongmai/santhuongmai/src/main/resources/template_chart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>THỐNG KÊ SỐ LƯỢNG VÀ DOANH THU</t>
   </si>
@@ -44,7 +44,10 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>Số lượng đã bán</t>
+    <t>Danh sách sản phẩm đã bán</t>
+  </si>
+  <si>
+    <t>Tổng số lượng đã bán</t>
   </si>
   <si>
     <t>Doanh thu nhận được</t>
@@ -56,13 +59,16 @@
     <t>${data.stt}</t>
   </si>
   <si>
-    <t>${data.field}</t>
+    <t>${data.col1}</t>
   </si>
   <si>
-    <t>${data.amount}</t>
+    <t>${data.col2}</t>
   </si>
   <si>
-    <t>${data.value}</t>
+    <t>${data.col3}</t>
+  </si>
+  <si>
+    <t>${data.col4}</t>
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
@@ -746,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,6 +782,9 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1311,39 +1320,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="25.8571428571429" customWidth="1"/>
-    <col min="3" max="4" width="26.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="51.2857142857143" customWidth="1"/>
+    <col min="4" max="5" width="26.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="18.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
-    <row r="6" ht="15.75" spans="1:4">
+    <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,40 +1369,51 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="31.5" spans="1:4">
+    <row r="8" ht="31.5" spans="1:5">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
